--- a/nop-wf/model/nop-wf.api.xlsx
+++ b/nop-wf/model/nop-wf.api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy-bak\nop-wf\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F94CE1-99A3-463F-9EF5-CFFA6396BA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046B2BF5-503E-4EA6-A04C-123C50EE2711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>io.nop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maven.artifactId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,6 +611,10 @@
   </si>
   <si>
     <t>工作流步骤ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.github.entropy-cloud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,27 +817,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,6 +846,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1408,7 +1408,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>16</v>
@@ -1422,54 +1422,54 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1477,43 +1477,43 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1575,98 +1575,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
+      <c r="A1" s="10">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
@@ -1674,222 +1674,231 @@
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="5"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="11"/>
+      <c r="H7" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="23"/>
       <c r="L7" s="5"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K8" s="11"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="23"/>
       <c r="L8" s="5"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" s="11"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="23"/>
       <c r="L9" s="5"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K10" s="11"/>
+      <c r="H10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="23"/>
       <c r="L10" s="5"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="5">
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="11"/>
+      <c r="H11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="23"/>
       <c r="L11" s="5"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -1906,15 +1915,6 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1955,107 +1955,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -2095,7 +2095,7 @@
         <v>19</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>10</v>
@@ -2110,21 +2110,21 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -2141,21 +2141,21 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="5">
         <v>50</v>
@@ -2172,19 +2172,19 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J9" s="9">
         <v>4000</v>
@@ -2201,19 +2201,19 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="5">
         <v>500</v>
@@ -2230,19 +2230,19 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" s="5">
         <v>50</v>
@@ -2259,19 +2259,19 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="5">
         <v>500</v>
@@ -2288,19 +2288,19 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="5">
         <v>50</v>
@@ -2312,21 +2312,21 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2372,107 +2372,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2485,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -2512,7 +2512,7 @@
         <v>19</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>10</v>
@@ -2527,21 +2527,21 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -2558,21 +2558,21 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="5">
         <v>50</v>
@@ -2589,21 +2589,21 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -2620,19 +2620,19 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="5">
         <v>50</v>
@@ -2649,19 +2649,19 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" s="5">
         <v>50</v>
@@ -2678,19 +2678,19 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="5">
         <v>50</v>
@@ -2707,19 +2707,19 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="5">
         <v>50</v>
@@ -2731,35 +2731,35 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A14:O14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A14:O14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2791,107 +2791,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2904,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -2931,7 +2931,7 @@
         <v>19</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2946,19 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -2975,19 +2975,19 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="5">
         <v>50</v>
@@ -3004,21 +3004,21 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -3035,21 +3035,21 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3064,19 +3064,19 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J11" s="9">
         <v>4000</v>
@@ -3093,19 +3093,19 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="5">
         <v>500</v>
@@ -3122,19 +3122,19 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="5">
         <v>50</v>
@@ -3151,19 +3151,19 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="5">
         <v>500</v>
@@ -3180,19 +3180,19 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J15" s="5">
         <v>50</v>
@@ -3204,35 +3204,35 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="11"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A16:O16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3243,7 +3243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36A7F9E-727B-43D1-880F-185EEEE67326}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -3264,107 +3264,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3377,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -3404,7 +3404,7 @@
         <v>19</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>10</v>
@@ -3419,19 +3419,19 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -3448,19 +3448,19 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="5">
         <v>50</v>
@@ -3477,21 +3477,21 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -3508,21 +3508,21 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="9">
         <v>50</v>
@@ -3539,21 +3539,21 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" s="5">
         <v>100</v>
@@ -3570,19 +3570,19 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J12" s="9">
         <v>4000</v>
@@ -3594,35 +3594,35 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="11"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A13:O13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A13:O13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3654,107 +3654,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>3</v>
@@ -3794,7 +3794,7 @@
         <v>19</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>10</v>
@@ -3809,19 +3809,19 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -3838,19 +3838,19 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="5">
         <v>50</v>
@@ -3867,21 +3867,21 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -3898,19 +3898,19 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J10" s="9">
         <v>4000</v>
@@ -3922,35 +3922,35 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="11"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A11:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.api.xlsx
+++ b/nop-wf/model/nop-wf.api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB6D0D0-51C5-4184-B145-34D2EAA5B7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F77E36-767B-4746-AF8A-EBF27B54C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="2" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="148">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,6 +615,14 @@
   </si>
   <si>
     <t>io.github.entropy-cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1556,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1935,7 +1943,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2155,11 +2163,9 @@
         <v>17</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="5">
-        <v>50</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -2242,11 +2248,9 @@
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="5">
-        <v>50</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -2352,7 +2356,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2572,11 +2576,9 @@
         <v>17</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="5">
-        <v>50</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -2770,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DD93F5-DD07-4FAB-B29E-418C5091509D}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2987,11 +2989,9 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="5">
-        <v>50</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -3134,11 +3134,9 @@
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="5">
-        <v>50</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -3244,7 +3242,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3460,11 +3458,9 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="5">
-        <v>50</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -3634,7 +3630,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:O11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3850,11 +3846,9 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="5">
-        <v>50</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>

--- a/nop-wf/model/nop-wf.api.xlsx
+++ b/nop-wf/model/nop-wf.api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F77E36-767B-4746-AF8A-EBF27B54C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723FEAEC-BC99-49B3-B02E-AD00287C8191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="5" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="147">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,10 +291,6 @@
   </si>
   <si>
     <t>响应消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sync</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -825,27 +821,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,6 +850,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1438,13 +1434,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1460,10 +1456,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -1471,10 +1467,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1485,7 +1481,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -1564,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1583,92 +1579,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
+      <c r="A1" s="10">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1682,14 +1678,14 @@
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1698,206 +1694,205 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="5"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" s="11"/>
+      <c r="H7" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="23"/>
       <c r="L7" s="5"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="11"/>
+      <c r="H8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="23"/>
       <c r="L8" s="5"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="11"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="23"/>
       <c r="L9" s="5"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="5">
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" s="11"/>
+      <c r="H10" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="23"/>
       <c r="L10" s="5"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="5">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" s="11"/>
+      <c r="H11" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="23"/>
       <c r="L11" s="5"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -1914,15 +1909,6 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1963,107 +1949,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2118,7 +2104,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
@@ -2132,7 +2118,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -2149,7 +2135,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
@@ -2163,7 +2149,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2178,19 +2164,19 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" s="9">
         <v>4000</v>
@@ -2207,11 +2193,11 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>43</v>
@@ -2219,7 +2205,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="5">
         <v>500</v>
@@ -2236,19 +2222,19 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -2267,15 +2253,15 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="5">
         <v>500</v>
@@ -2292,19 +2278,19 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="5">
         <v>50</v>
@@ -2316,21 +2302,21 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2376,107 +2362,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2531,7 +2517,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
@@ -2545,7 +2531,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -2562,7 +2548,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
@@ -2576,7 +2562,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2598,14 +2584,14 @@
         <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -2622,7 +2608,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
@@ -2634,7 +2620,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="5">
         <v>50</v>
@@ -2651,19 +2637,19 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="5">
         <v>50</v>
@@ -2680,7 +2666,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
@@ -2692,7 +2678,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="5">
         <v>50</v>
@@ -2709,19 +2695,19 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="5">
         <v>50</v>
@@ -2733,35 +2719,35 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A14:O14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A14:O14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,7 +2758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DD93F5-DD07-4FAB-B29E-418C5091509D}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -2793,107 +2779,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2948,7 +2934,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
@@ -2960,7 +2946,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -2977,7 +2963,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
@@ -2989,7 +2975,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3011,14 +2997,14 @@
         <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -3035,7 +3021,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
@@ -3049,7 +3035,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3064,19 +3050,19 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J11" s="9">
         <v>4000</v>
@@ -3093,11 +3079,11 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>43</v>
@@ -3105,7 +3091,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="5">
         <v>500</v>
@@ -3122,19 +3108,19 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -3153,15 +3139,15 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="5">
         <v>500</v>
@@ -3178,19 +3164,19 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="5">
         <v>50</v>
@@ -3202,35 +3188,35 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="11"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A16:O16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3262,107 +3248,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3417,7 +3403,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
@@ -3429,7 +3415,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -3446,7 +3432,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
@@ -3458,7 +3444,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3480,14 +3466,14 @@
         <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -3504,21 +3490,21 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="9">
         <v>50</v>
@@ -3535,11 +3521,11 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>42</v>
@@ -3549,7 +3535,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="5">
         <v>100</v>
@@ -3566,19 +3552,19 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J12" s="9">
         <v>4000</v>
@@ -3590,35 +3576,35 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="11"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A13:O13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A13:O13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3650,107 +3636,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3805,7 +3791,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
@@ -3817,7 +3803,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -3834,7 +3820,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
@@ -3846,7 +3832,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3868,14 +3854,14 @@
         <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -3892,19 +3878,19 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J10" s="9">
         <v>4000</v>
@@ -3916,35 +3902,35 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="11"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A11:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.api.xlsx
+++ b/nop-wf/model/nop-wf.api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723FEAEC-BC99-49B3-B02E-AD00287C8191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F1363-836F-4031-B9B5-D814B649A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="148">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,10 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Start Args</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>启动参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -619,6 +615,14 @@
   </si>
   <si>
     <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wfParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workflow Params</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,6 +825,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,27 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1434,13 +1438,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1456,10 +1460,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -1467,10 +1471,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1481,7 +1485,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -1560,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1579,92 +1583,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="10">
+      <c r="A1" s="17">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1678,14 +1682,14 @@
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1694,12 +1698,12 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
@@ -1711,24 +1715,24 @@
       <c r="G6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="21"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="5"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
@@ -1740,24 +1744,24 @@
       <c r="G7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="23"/>
+      <c r="H7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="11"/>
       <c r="L7" s="5"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
@@ -1769,24 +1773,24 @@
       <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="K8" s="23"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="11"/>
       <c r="L8" s="5"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
@@ -1798,24 +1802,24 @@
       <c r="G9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="23"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="11"/>
       <c r="L9" s="5"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="5">
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
@@ -1827,24 +1831,24 @@
       <c r="G10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" s="23"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="11"/>
       <c r="L10" s="5"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="5">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
@@ -1856,43 +1860,34 @@
       <c r="G11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" s="23"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="11"/>
       <c r="L11" s="5"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="23"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -1909,6 +1904,15 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1928,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1949,107 +1953,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2118,7 +2122,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -2149,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2164,19 +2168,19 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J9" s="9">
         <v>4000</v>
@@ -2193,11 +2197,11 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>43</v>
@@ -2205,7 +2209,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" s="5">
         <v>500</v>
@@ -2222,19 +2226,19 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -2253,15 +2257,15 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J12" s="5">
         <v>500</v>
@@ -2278,19 +2282,19 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13" s="5">
         <v>50</v>
@@ -2302,21 +2306,21 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="23"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2362,107 +2366,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="H2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2531,7 +2535,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -2562,7 +2566,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2591,7 +2595,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -2608,7 +2612,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
@@ -2620,7 +2624,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" s="5">
         <v>50</v>
@@ -2637,19 +2641,19 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" s="5">
         <v>50</v>
@@ -2666,7 +2670,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
@@ -2678,7 +2682,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J12" s="5">
         <v>50</v>
@@ -2695,19 +2699,19 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13" s="5">
         <v>50</v>
@@ -2719,35 +2723,35 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="23"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A14:O14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A14:O14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2779,107 +2783,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="H2" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2946,7 +2950,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -2975,7 +2979,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3004,7 +3008,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -3021,7 +3025,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
@@ -3035,7 +3039,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3050,19 +3054,19 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J11" s="9">
         <v>4000</v>
@@ -3079,11 +3083,11 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>43</v>
@@ -3091,7 +3095,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J12" s="5">
         <v>500</v>
@@ -3108,19 +3112,19 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -3139,15 +3143,15 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" s="5">
         <v>500</v>
@@ -3164,19 +3168,19 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J15" s="5">
         <v>50</v>
@@ -3188,35 +3192,35 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A16:O16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3248,107 +3252,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="H2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3415,7 +3419,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -3444,7 +3448,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3473,7 +3477,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -3490,21 +3494,21 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" s="9">
         <v>50</v>
@@ -3521,11 +3525,11 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>42</v>
@@ -3535,7 +3539,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" s="5">
         <v>100</v>
@@ -3556,15 +3560,15 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J12" s="9">
         <v>4000</v>
@@ -3576,35 +3580,35 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="23"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A13:O13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A13:O13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3636,107 +3640,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="H2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3803,7 +3807,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="5">
         <v>500</v>
@@ -3832,7 +3836,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3861,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" s="9">
         <v>50</v>
@@ -3882,15 +3886,15 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J10" s="9">
         <v>4000</v>
@@ -3902,35 +3906,35 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="23"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A11:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-wf/model/nop-wf.api.xlsx
+++ b/nop-wf/model/nop-wf.api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-wf\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F1363-836F-4031-B9B5-D814B649A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B3EA49-ABC8-4966-B91A-A99B459CF8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="4" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="WfStartRequestBean" sheetId="21" r:id="rId4"/>
     <sheet name="WfStartResponseBean" sheetId="23" r:id="rId5"/>
     <sheet name="WfSubFlowEndRequestBean" sheetId="24" r:id="rId6"/>
-    <sheet name="WfActionRequestBean" sheetId="25" r:id="rId7"/>
-    <sheet name="WfCommandRequestBean" sheetId="26" r:id="rId8"/>
+    <sheet name="WfChangeActorRequestBean" sheetId="27" r:id="rId7"/>
+    <sheet name="WfActionRequestBean" sheetId="25" r:id="rId8"/>
+    <sheet name="WfCommandRequestBean" sheetId="26" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="165">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +624,74 @@
   </si>
   <si>
     <t>Workflow Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actorType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actorId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与者类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actorDeptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action Dept ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与者部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WfChangeActorRequestBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Actor Request </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,27 +894,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,6 +923,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1565,7 +1634,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1583,87 +1652,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="17">
+      <c r="A1" s="10">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1682,14 +1751,14 @@
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="16"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1698,7 +1767,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1715,19 +1784,19 @@
       <c r="G6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="5"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -1744,19 +1813,19 @@
       <c r="G7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="5"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -1773,19 +1842,19 @@
       <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="11"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="5"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -1802,19 +1871,19 @@
       <c r="G9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="21"/>
+      <c r="J9" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="5"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -1831,19 +1900,19 @@
       <c r="G10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="10" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="11"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="5"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="5">
         <v>6</v>
       </c>
@@ -1860,34 +1929,43 @@
       <c r="G11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="11"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="5"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="A1:A12"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -1904,15 +1982,6 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1932,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1953,107 +2022,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2306,21 +2375,21 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2366,107 +2435,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2723,35 +2792,35 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="11"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A14:O14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A14:O14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2783,107 +2852,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3192,35 +3261,35 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="11"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A16:O16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A16:O16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3228,11 +3297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36A7F9E-727B-43D1-880F-185EEEE67326}">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8013CEFB-0575-4771-AC0B-AEA71940FF9C}">
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3252,107 +3321,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3525,19 +3594,17 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
         <v>93</v>
       </c>
@@ -3556,22 +3623,22 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="J12" s="9">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6"/>
@@ -3580,35 +3647,122 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="11"/>
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="9">
+        <v>100</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="9">
+        <v>50</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="9">
+        <v>200</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A16:O16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A13:O13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3616,6 +3770,394 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36A7F9E-727B-43D1-880F-185EEEE67326}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.9140625" customWidth="1"/>
+    <col min="4" max="4" width="4.75" customWidth="1"/>
+    <col min="5" max="5" width="15.08203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="6.08203125" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="5">
+        <v>500</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="9">
+        <v>50</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="9">
+        <v>50</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="5">
+        <v>100</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="9">
+        <v>4000</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8B7AAA-35C2-4F92-AE76-696EF536ED3D}">
   <dimension ref="A1:O11"/>
   <sheetViews>
@@ -3640,107 +4182,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="27"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="27"/>
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="7"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="11"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3906,35 +4448,35 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="11"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A11:O11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A11:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
